--- a/data/evaluation/evaluation_Center_Summer_Pumpkin.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Pumpkin.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4821.241010101009</v>
+        <v>4670.261394300145</v>
       </c>
       <c r="C4" t="n">
-        <v>53176005.87851748</v>
+        <v>46244708.74744669</v>
       </c>
       <c r="D4" t="n">
-        <v>7292.188003508788</v>
+        <v>6800.346222615925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2830701221746259</v>
+        <v>0.3765192995480148</v>
       </c>
     </row>
     <row r="5">
